--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\ch-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEFC897-0038-4D71-8DA5-07AC6247CDA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6816E50-F687-488B-A257-04800A69605A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
@@ -30,6 +30,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Made you look!</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,10 +536,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
